--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1716857.129534579</v>
+        <v>1744956.18517679</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17316772.40006199</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>278692.0725916865</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6226822.402302255</v>
+        <v>6324585.686350824</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>411.58855640907</v>
+        <v>106.6158133618224</v>
       </c>
       <c r="D2" t="n">
-        <v>411.58855640907</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>320.116802933016</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>411.58855640907</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -747,7 +747,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>33.23550584829781</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
         <v>84.53123883647795</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.74998989825346</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,10 +905,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>410.8797281447715</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>220.6113092035557</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1038,7 +1038,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035072</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -1054,16 +1054,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>138.3792129943148</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.54445708395529</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>237.2177930475862</v>
+        <v>180.2960919911534</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,10 +1145,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>110.2564737593037</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>68.46830416244418</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>60.78001549303652</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>47.9052515592025</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>163.1965389958332</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225779</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225779</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,16 +2293,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>103.345659457196</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2321,7 +2321,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2482,16 +2482,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>28.46824604904493</v>
+        <v>53.90045570694525</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>193.8659438253726</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225774</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948872</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043075</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>50.05924486566766</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.24351759540802</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.7820690909208</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629705</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.8135104125017</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.49499511222165</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.6468227292177</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.203262463345</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>188.4610776751748</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.932229602986</v>
+        <v>628.8817772575625</v>
       </c>
       <c r="C2" t="n">
-        <v>1188.186213028167</v>
+        <v>521.1890364880448</v>
       </c>
       <c r="D2" t="n">
-        <v>772.4401964533492</v>
+        <v>489.3196557028934</v>
       </c>
       <c r="E2" t="n">
-        <v>449.0898904604038</v>
+        <v>459.5853149015927</v>
       </c>
       <c r="F2" t="n">
-        <v>33.34387388558559</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>33.34387388558559</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.34387388558559</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>32.9270845127256</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>440.3997553577049</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>440.3997553577049</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>440.3997553577049</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>440.3997553577049</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>440.3997553577049</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>847.872426202684</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1069.727490038244</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1477.200160883223</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>1646.35422563628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1646.35422563628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1646.35422563628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1646.35422563628</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.35422563628</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1645.539175087717</v>
+        <v>1074.529126782698</v>
       </c>
       <c r="X2" t="n">
-        <v>1630.437115707432</v>
+        <v>1059.427067402413</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.191396047489</v>
+        <v>1055.18134774247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.2862091487636</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>382.8297479854059</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>287.7394591319592</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>193.6190444589129</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>160.0478264303292</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>74.66273669651312</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>32.9270845127256</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9907576731832</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>383.5490826393955</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>791.0217534843747</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1121.708776696961</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1121.708776696961</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1121.708776696961</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1121.708776696961</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1121.708776696961</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1529.18144754194</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1646.35422563628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1582.898788084663</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1452.720144415264</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1276.383597415233</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1077.266079477232</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>891.9433252104261</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>737.075889449306</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>610.5901102285268</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.6341385509694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>209.6341385509694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>209.6341385509694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>209.6341385509694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>32.9270845127256</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>32.9270845127256</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>32.9270845127256</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>32.9270845127256</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>119.5067696774154</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>394.265224248551</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>723.1818859566265</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1130.654556801606</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1130.654556801606</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1130.654556801606</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1478.161450771948</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>1646.35422563628</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1624.936404341652</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1624.936404341652</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1379.056957920107</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1100.623957173212</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>813.6684490436426</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>541.6420446299342</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>296.2502899633466</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.6341385509694</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.3315093046215</v>
+        <v>965.6253987944282</v>
       </c>
       <c r="C5" t="n">
-        <v>925.2294405284488</v>
+        <v>527.4829259778514</v>
       </c>
       <c r="D5" t="n">
-        <v>893.3600597432974</v>
+        <v>495.6135451927</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>465.8792043913992</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="G5" t="n">
-        <v>34.3604579744683</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="H5" t="n">
-        <v>34.3604579744683</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160831</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465111</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465111</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465111</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465111</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465111</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="O5" t="n">
-        <v>874.049466491414</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382456</v>
+        <v>1805.966478762199</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.029365327359</v>
+        <v>2352.465264720794</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080416</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264252</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264252</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264252</v>
+        <v>2178.745152974704</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264252</v>
+        <v>1816.128202908531</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.71650571569</v>
+        <v>1411.272748319564</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.876799449472</v>
+        <v>992.1302848988745</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.5906757491252</v>
+        <v>987.8845652389319</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929011</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760966</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030503</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192119</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539584</v>
+        <v>92.16803877326454</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160831</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206591</v>
+        <v>76.49605974993462</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731811</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041173</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986076</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080416</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.727992528798</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.5493488594</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.212801859368</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.095283921368</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545618</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934434</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726642</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.7206514241485</v>
+        <v>614.453556988663</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160831</v>
+        <v>441.8918454718879</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160831</v>
+        <v>396.8974443769836</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160831</v>
+        <v>227.1394406277208</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160831</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160831</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160831</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160831</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374337</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053948</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216083</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080416</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785787</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785787</v>
+        <v>2362.377960771847</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785787</v>
+        <v>2116.498514350302</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.332608038893</v>
+        <v>1838.065513603407</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.377099909323</v>
+        <v>1551.110005473838</v>
       </c>
       <c r="W7" t="n">
-        <v>838.3506954956149</v>
+        <v>1279.083601060129</v>
       </c>
       <c r="X7" t="n">
-        <v>592.9589408290274</v>
+        <v>1033.691846393542</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.5392701431356</v>
+        <v>806.2721757076501</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.988348109748</v>
+        <v>1415.517618276921</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1208.676101675288</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>789.5336382545983</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.2475145542517</v>
+        <v>1841.817188761829</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1585.813254565969</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1340.421499899382</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1113.00182921349</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227753</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599151</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.519446927393</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.829321760789</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.328107719384</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656575</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4833.741734656575</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4613.674507529614</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.514604335226</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.897654269053</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.042199680086</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.899736259395</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.613612559048</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.171283788238</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.171283788238</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>837.2932909897606</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5352872404978</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>490.828233202254</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2369582280817</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3347839184562</v>
+        <v>163.6547953142509</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.093075893928</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.213629472383</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.780628725488</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.825120595919</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.79871618221</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1422.409573193117</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1194.989902507225</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2249.599768769385</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313153</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.519446927393</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.829321760789</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.328107719384</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840413</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.022633713452</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4270.800331030468</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3908.183380964295</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3503.327926375328</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3084.185462954639</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2675.899339254292</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4104868769191</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.1708717700628</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6091602532878</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7311674548105</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>438.9731637055477</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2661096673039</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67483469313153</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313153</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.095275553247</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.215829131702</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.782828384808</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.827320255238</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.800915841529</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.409161174942</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.98949048905</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5987,31 +5987,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>473.31497337314</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6175,19 +6175,19 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
         <v>1003.573296407379</v>
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N29" t="n">
-        <v>3603.973621145286</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.973621145286</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.973621145286</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
         <v>143.9964924545671</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750508</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.798197351206</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247199</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817505</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650902</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609496</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.5453418998821</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>778.4004197559673</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>612.93921633035</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E37" t="n">
-        <v>443.5980019539472</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F37" t="n">
-        <v>267.3077372885634</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G37" t="n">
-        <v>102.133251687251</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>152.8257340744843</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2695.552220073046</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2450.089563024361</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2172.073351650326</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1885.534632893617</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.925017852768</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.950052559041</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.947171246009</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2582.520192247198</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.488769884298</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.488769884298</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.488769884298</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.488769884298</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.488769884298</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.488769884298</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.4472873759443</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>697.3023652320292</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>531.8411618064118</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>531.8411618064118</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>355.550897141028</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375629</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.773587326944</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2039.757375952909</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.2186571962</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1481.609042155351</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.634076861624</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1009.631195548592</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.268927880592</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.543244436875</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D41" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E41" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F41" t="n">
-        <v>786.2416532974025</v>
+        <v>793.2056155771613</v>
       </c>
       <c r="G41" t="n">
-        <v>385.2606112935267</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>96.54724610960294</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>531.8019335625208</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1366.152225520699</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2441.212191773559</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3421.391858343865</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4249.70173317726</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4796.200519135856</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>4827.362305480146</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>4744.127221036843</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4524.476783282742</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4265.671269972619</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3903.471109279305</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3499.032444063198</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3080.306770015369</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.15170899264</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>122.6109192700605</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>447.1692442362728</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1101.875290861997</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1101.875290861997</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1101.875290861997</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.875290861997</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.9593363222342</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>772.8144141783192</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>607.3532107527019</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>438.0119963762991</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>261.7217317109153</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G43" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H43" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>183.5354265386329</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>458.7023763741086</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>877.3207534064098</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2547.873547998452</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2716.474818127124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2716.474818127124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.65023879798</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.187581749296</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2034.171370375261</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1747.632651618551</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.023036577702</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1231.048071283975</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1004.045189970943</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880592</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436875</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935267</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625208</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520699</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>3018.872764076444</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3999.052430646751</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4827.362305480146</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4827.362305480146</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480146</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036843</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.476783282742</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.671269972619</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279305</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.032444063198</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3080.306770015369</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2672.437435687882</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700605</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362728</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1127.90276430665</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1127.90276430665</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1127.90276430665</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1127.90276430665</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1127.90276430665</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1127.90276430665</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>867.7412927490818</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5963706051667</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>695.5963706051667</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>526.2551562287638</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>349.96489156338</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>184.7904059620676</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>184.7904059620676</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960294</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386329</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064098</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998452</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2716.474818127124</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2557.65023879798</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2367.28551387356</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2089.269302499526</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1802.730583742816</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1531.120968701968</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1286.146003408241</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1059.143122095209</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>411.5885564090699</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>224.0960240763231</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>411.58855640907</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>334.0272961743294</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>332.2390522303793</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201039</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558610927</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201039</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798402</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201039</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201039</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888807</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201039</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201039</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644298</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238343</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>239.5100572483141</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>37.79154236079921</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>37.79154236080012</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9644,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,16 +10121,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,19 +10358,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828716</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>137.0929241373665</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>31.47655186292013</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11139,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>583.4955275786724</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>188.1617754937091</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>26.99333424003489</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>195.0325855607192</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>270.5645090925777</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627255</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627255</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>139.5921776627252</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>81.78272691405313</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>37.71410486740375</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>130.9928159404439</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.70574196174505</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>270.9771305717099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9928159404442</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>270.9771305717096</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>54.54695280302312</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>510768.362940175</v>
+        <v>512053.9310715657</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>512053.9310715656</v>
+        <v>526849.9738987201</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>512053.9310715657</v>
+        <v>529514.0339523</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532347.5878730912</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532347.5878730913</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>555191.1123098714</v>
+        <v>555072.4983781533</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>555191.1123098712</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>532466.201804809</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>532466.201804809</v>
+        <v>555072.4983781535</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>442126.8289758637</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>442126.8289758637</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="G2" t="n">
         <v>461000.3861201833</v>
@@ -26341,19 +26341,19 @@
         <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
+        <v>461000.3861201833</v>
+      </c>
+      <c r="M2" t="n">
         <v>461000.3861201832</v>
       </c>
-      <c r="M2" t="n">
-        <v>461206.9678695365</v>
-      </c>
       <c r="N2" t="n">
-        <v>461206.9678695366</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="P2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137932.7917894768</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>4105.356487150296</v>
+        <v>66587.76789501586</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998306</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19138.004234371</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107689.6762530947</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>3270.452672344582</v>
+        <v>53045.85463877227</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622551</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995838</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214906.0072334887</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372181</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>90994.07968777527</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>90994.07968777527</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="L4" t="n">
         <v>94878.44464875288</v>
       </c>
-      <c r="L4" t="n">
-        <v>94878.44464875286</v>
-      </c>
       <c r="M4" t="n">
-        <v>95206.69569251797</v>
+        <v>94878.44464875277</v>
       </c>
       <c r="N4" t="n">
-        <v>95206.69569251795</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="O4" t="n">
-        <v>91322.33073154032</v>
+        <v>94878.4446487528</v>
       </c>
       <c r="P4" t="n">
-        <v>91322.33073154034</v>
+        <v>94878.4446487528</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58652.18422967145</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722231</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677994</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677996</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>73410.59571842733</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842733</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57637.92165147049</v>
+        <v>55419.69666995732</v>
       </c>
       <c r="C6" t="n">
-        <v>193505.6408425169</v>
+        <v>150866.2904093824</v>
       </c>
       <c r="D6" t="n">
-        <v>197610.9973296672</v>
+        <v>209499.2495259236</v>
       </c>
       <c r="E6" t="n">
-        <v>43533.04855537345</v>
+        <v>106025.3693052054</v>
       </c>
       <c r="F6" t="n">
-        <v>277659.8749213085</v>
+        <v>288380.4785262552</v>
       </c>
       <c r="G6" t="n">
-        <v>269265.6986312669</v>
+        <v>288380.4785262552</v>
       </c>
       <c r="H6" t="n">
-        <v>288403.7028656379</v>
+        <v>288380.4785262552</v>
       </c>
       <c r="I6" t="n">
-        <v>288403.7028656379</v>
+        <v>288380.4785262553</v>
       </c>
       <c r="J6" t="n">
-        <v>180714.0266125432</v>
+        <v>177366.013181265</v>
       </c>
       <c r="K6" t="n">
-        <v>285133.2501932934</v>
+        <v>235334.623887483</v>
       </c>
       <c r="L6" t="n">
-        <v>288403.7028656378</v>
+        <v>278988.1767996327</v>
       </c>
       <c r="M6" t="n">
-        <v>93000.94091999492</v>
+        <v>136180.3075882677</v>
       </c>
       <c r="N6" t="n">
-        <v>288344.3122195788</v>
+        <v>288380.4785262553</v>
       </c>
       <c r="O6" t="n">
-        <v>277600.4842752494</v>
+        <v>288380.4785262552</v>
       </c>
       <c r="P6" t="n">
-        <v>277600.4842752494</v>
+        <v>288380.4785262553</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201039</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>12.70730111103394</v>
+        <v>206.1089748483583</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939433</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.82506972060128</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>12.70730111103394</v>
+        <v>206.1089748483583</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939433</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499327</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>12.70730111103394</v>
+        <v>206.1089748483583</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939433</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.82506972060128</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>327.1452347265885</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>22.17249167934096</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.96213056822995</v>
-      </c>
       <c r="E2" t="n">
-        <v>109.3201944602718</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>12.00019888581437</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27433,10 +27433,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>49.31449415170219</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>139.3954840807793</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,10 +27625,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.70902715011277</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>194.3397295829267</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>32.45688140729251</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>119.6747557865372</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>196.5432550408247</v>
+        <v>253.4649560972575</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,7 +27913,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.0496666102677</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>-2.833154400738342e-12</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.76829585457042e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-8.045058871959617e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.932676241267473e-12</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>411.5885564090699</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>224.0960240763231</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>411.58855640907</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>334.0272961743294</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>332.2390522303793</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>411.58855640907</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201039</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558610927</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201039</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798402</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201039</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201039</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888807</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201039</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201039</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644298</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238343</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>239.5100572483141</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,13 +35410,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>37.79154236079921</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>37.79154236080012</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,16 +36841,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36999,10 +36999,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,19 +37078,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828716</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>137.0929241373665</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>31.47655186292013</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>583.4955275786724</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.846845487173</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.320954030426</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
